--- a/WorkBot/main/backend/orders/OrderFiles/Webstaurant/Webstaurant_BAKERY_20250222.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Webstaurant/Webstaurant_BAKERY_20250222.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,6 +687,168 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>245882CB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Box Cake - 8x8x2.5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>49.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>711SPRNKLEYW</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sprinkles - Yellow</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>433SLINERBL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sheet Pan Liner - Silicone Coated</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>230.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>500CTOUT160</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Java Box (160oz)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>284.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5000TOUT96</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Java Box (96oz)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>245.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>245CCGR1914</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cake Board - 1/2 Sheet</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
